--- a/test/fixtures/upload.xlsx
+++ b/test/fixtures/upload.xlsx
@@ -20,24 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">domain_external_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
     <t xml:space="preserve">domain</t>
   </si>
   <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confidential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
+    <t xml:space="preserve">Domain Name</t>
   </si>
   <si>
     <t xml:space="preserve">Test</t>
@@ -59,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -81,13 +90,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE69C"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,8 +146,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -138,60 +172,129 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFE69C"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.71"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/test/fixtures/upload.xlsx
+++ b/test/fixtures/upload.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_FBC315CB64CBFCA7E3A7258F889C8E7167043BDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9855C368-8652-40D1-84CC-4F357B8DD030}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="term" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="term" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,55 +34,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain_external_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confidential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>domain_external_id</t>
+  </si>
+  <si>
+    <t>domain_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>confidential</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>input_integer</t>
+  </si>
+  <si>
+    <t>input_float</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -76,25 +93,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -113,7 +114,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -121,57 +122,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -230,28 +194,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.71"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="13.9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -273,35 +547,46 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
         <v>12</v>
+      </c>
+      <c r="I2">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>

--- a/test/fixtures/upload.xlsx
+++ b/test/fixtures/upload.xlsx
@@ -1,31 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_FBC315CB64CBFCA7E3A7258F889C8E7167043BDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9855C368-8652-40D1-84CC-4F357B8DD030}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="term" sheetId="1" r:id="rId1"/>
+    <sheet name="term" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -34,58 +20,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>domain_external_id</t>
-  </si>
-  <si>
-    <t>domain_name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>confidential</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>input_integer</t>
-  </si>
-  <si>
-    <t>input_float</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>Domain Name</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Role</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain_external_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[com] (www.com.com)|[] (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">www.net.net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)|www.org.org</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -93,9 +115,32 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -114,7 +159,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -122,20 +167,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -194,217 +280,103 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -412,33 +384,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -451,13 +414,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -467,15 +424,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -483,7 +438,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -491,41 +445,37 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.9">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,46 +497,56 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
+      <c r="I2" s="0" t="n">
         <v>12.5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" display="www.net.net"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
